--- a/comp173-gantt-chart_ms.xlsx
+++ b/comp173-gantt-chart_ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonlab\senior-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD50243-3AD6-48AC-8AA8-B4E042874807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC2BA0-4C07-4A7F-8357-67D21E8DFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,23 +929,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1507,7 +1507,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN10" sqref="BN10"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,27 +1534,27 @@
       <c r="F1" s="88"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="93" t="str">
+      <c r="J1" s="98" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
     </row>
     <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -1563,10 +1563,10 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="93">
         <v>44617</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1575,325 +1575,325 @@
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="93">
         <v>44625</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="94">
+        <v>2</v>
+      </c>
+      <c r="I4" s="95">
         <f>I5</f>
-        <v>44613</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+        <v>44620</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f>P5</f>
-        <v>44620</v>
-      </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+        <v>44627</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f>W5</f>
-        <v>44627</v>
-      </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+        <v>44634</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f>AD5</f>
-        <v>44634</v>
-      </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+        <v>44641</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f>AK5</f>
-        <v>44641</v>
-      </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+        <v>44648</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f>AR5</f>
-        <v>44648</v>
-      </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+        <v>44655</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f>AY5</f>
-        <v>44655</v>
-      </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+        <v>44662</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f>BF5</f>
-        <v>44662</v>
-      </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+        <v>44669</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
         <f>E2-WEEKDAY(E2,1)+2+7*(E4-1)</f>
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="J5" s="12">
         <f>I5+1</f>
-        <v>44614</v>
+        <v>44621</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>44617</v>
+        <v>44624</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" si="0"/>
-        <v>44619</v>
+        <v>44626</v>
       </c>
       <c r="P5" s="13">
         <f>O5+1</f>
-        <v>44620</v>
+        <v>44627</v>
       </c>
       <c r="Q5" s="12">
         <f>P5+1</f>
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="R5" s="12">
         <f t="shared" si="0"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" si="0"/>
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="0"/>
-        <v>44624</v>
+        <v>44631</v>
       </c>
       <c r="U5" s="12">
         <f t="shared" si="0"/>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="V5" s="14">
         <f t="shared" si="0"/>
-        <v>44626</v>
+        <v>44633</v>
       </c>
       <c r="W5" s="13">
         <f>V5+1</f>
-        <v>44627</v>
+        <v>44634</v>
       </c>
       <c r="X5" s="12">
         <f>W5+1</f>
-        <v>44628</v>
+        <v>44635</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" si="0"/>
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="0"/>
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="AA5" s="12">
         <f t="shared" si="0"/>
-        <v>44631</v>
+        <v>44638</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="0"/>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="AC5" s="14">
         <f t="shared" si="0"/>
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="AD5" s="13">
         <f>AC5+1</f>
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="AE5" s="12">
         <f>AD5+1</f>
-        <v>44635</v>
+        <v>44642</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="0"/>
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="0"/>
-        <v>44637</v>
+        <v>44644</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="0"/>
-        <v>44638</v>
+        <v>44645</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="0"/>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="AJ5" s="14">
         <f t="shared" si="0"/>
-        <v>44640</v>
+        <v>44647</v>
       </c>
       <c r="AK5" s="13">
         <f>AJ5+1</f>
-        <v>44641</v>
+        <v>44648</v>
       </c>
       <c r="AL5" s="12">
         <f>AK5+1</f>
-        <v>44642</v>
+        <v>44649</v>
       </c>
       <c r="AM5" s="12">
         <f t="shared" si="0"/>
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="AN5" s="12">
         <f t="shared" si="0"/>
-        <v>44644</v>
+        <v>44651</v>
       </c>
       <c r="AO5" s="12">
         <f t="shared" si="0"/>
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="AP5" s="12">
         <f t="shared" si="0"/>
-        <v>44646</v>
+        <v>44653</v>
       </c>
       <c r="AQ5" s="14">
         <f t="shared" si="0"/>
-        <v>44647</v>
+        <v>44654</v>
       </c>
       <c r="AR5" s="13">
         <f>AQ5+1</f>
-        <v>44648</v>
+        <v>44655</v>
       </c>
       <c r="AS5" s="12">
         <f>AR5+1</f>
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="AT5" s="12">
         <f t="shared" si="0"/>
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="AU5" s="12">
         <f t="shared" si="0"/>
-        <v>44651</v>
+        <v>44658</v>
       </c>
       <c r="AV5" s="12">
         <f t="shared" si="0"/>
-        <v>44652</v>
+        <v>44659</v>
       </c>
       <c r="AW5" s="12">
         <f t="shared" si="0"/>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="AX5" s="14">
         <f t="shared" si="0"/>
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="AY5" s="13">
         <f>AX5+1</f>
-        <v>44655</v>
+        <v>44662</v>
       </c>
       <c r="AZ5" s="12">
         <f>AY5+1</f>
-        <v>44656</v>
+        <v>44663</v>
       </c>
       <c r="BA5" s="12">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="BB5" s="12">
         <f t="shared" si="1"/>
-        <v>44658</v>
+        <v>44665</v>
       </c>
       <c r="BC5" s="12">
         <f t="shared" si="1"/>
-        <v>44659</v>
+        <v>44666</v>
       </c>
       <c r="BD5" s="12">
         <f t="shared" si="1"/>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="BE5" s="14">
         <f t="shared" si="1"/>
-        <v>44661</v>
+        <v>44668</v>
       </c>
       <c r="BF5" s="13">
         <f>BE5+1</f>
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="BG5" s="12">
         <f>BF5+1</f>
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="BH5" s="12">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="BI5" s="12">
         <f t="shared" si="2"/>
-        <v>44665</v>
+        <v>44672</v>
       </c>
       <c r="BJ5" s="12">
         <f t="shared" si="2"/>
-        <v>44666</v>
+        <v>44673</v>
       </c>
       <c r="BK5" s="12">
         <f t="shared" si="2"/>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="BL5" s="14">
         <f t="shared" si="2"/>
-        <v>44668</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3731,17 +3731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="D7:D27">

--- a/comp173-gantt-chart_ms.xlsx
+++ b/comp173-gantt-chart_ms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonlab\senior-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC2BA0-4C07-4A7F-8357-67D21E8DFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78558495-B252-4DA4-8301-D5942B3E7D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Snapshot 4</t>
   </si>
   <si>
-    <t>Updating each feature</t>
-  </si>
-  <si>
     <t>Phase 4 : Final</t>
   </si>
   <si>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>System Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Ceaser Cipher </t>
+  </si>
+  <si>
+    <t>Upgrade Password Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Password check </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster </t>
   </si>
 </sst>
 </file>
@@ -929,23 +938,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1503,11 +1512,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:CU32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,10 +1530,17 @@
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="65" max="70" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="78" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="99" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:99" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
@@ -1534,141 +1550,191 @@
       <c r="F1" s="88"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="98" t="str">
+      <c r="J1" s="93" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-    </row>
-    <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+    </row>
+    <row r="2" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="93">
+      <c r="E2" s="97">
         <v>44617</v>
       </c>
-      <c r="F2" s="94"/>
-    </row>
-    <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="97">
         <v>44625</v>
       </c>
-      <c r="F3" s="94"/>
-    </row>
-    <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="98"/>
+    </row>
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="94">
         <f>I5</f>
         <v>44620</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f>P5</f>
         <v>44627</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f>W5</f>
         <v>44634</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f>AD5</f>
         <v>44641</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f>AK5</f>
         <v>44648</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f>AR5</f>
         <v>44655</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f>AY5</f>
         <v>44662</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f>BF5</f>
         <v>44669</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="94">
+        <f>BM5</f>
+        <v>44676</v>
+      </c>
+      <c r="BN4" s="95"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="95"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="95"/>
+      <c r="BS4" s="96"/>
+      <c r="BT4" s="94">
+        <f>BT5</f>
+        <v>44683</v>
+      </c>
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="95"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="95"/>
+      <c r="BZ4" s="96"/>
+      <c r="CA4" s="94">
+        <f t="shared" ref="CA4" si="0">CA5</f>
+        <v>44690</v>
+      </c>
+      <c r="CB4" s="95"/>
+      <c r="CC4" s="95"/>
+      <c r="CD4" s="95"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="95"/>
+      <c r="CG4" s="96"/>
+      <c r="CH4" s="94">
+        <f t="shared" ref="CH4" si="1">CH5</f>
+        <v>44697</v>
+      </c>
+      <c r="CI4" s="95"/>
+      <c r="CJ4" s="95"/>
+      <c r="CK4" s="95"/>
+      <c r="CL4" s="95"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="96"/>
+      <c r="CO4" s="94">
+        <f t="shared" ref="CO4" si="2">CO5</f>
+        <v>44704</v>
+      </c>
+      <c r="CP4" s="95"/>
+      <c r="CQ4" s="95"/>
+      <c r="CR4" s="95"/>
+      <c r="CS4" s="95"/>
+      <c r="CT4" s="95"/>
+      <c r="CU4" s="96"/>
+    </row>
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -1680,23 +1746,23 @@
         <v>44621</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="3">J5+1</f>
         <v>44622</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44623</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44624</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44625</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44626</v>
       </c>
       <c r="P5" s="13">
@@ -1708,23 +1774,23 @@
         <v>44628</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44629</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44630</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44631</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44632</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44633</v>
       </c>
       <c r="W5" s="13">
@@ -1736,23 +1802,23 @@
         <v>44635</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44636</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44637</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44638</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44639</v>
       </c>
       <c r="AC5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44640</v>
       </c>
       <c r="AD5" s="13">
@@ -1764,23 +1830,23 @@
         <v>44642</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44643</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44644</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44645</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44646</v>
       </c>
       <c r="AJ5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44647</v>
       </c>
       <c r="AK5" s="13">
@@ -1792,23 +1858,23 @@
         <v>44649</v>
       </c>
       <c r="AM5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44650</v>
       </c>
       <c r="AN5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44651</v>
       </c>
       <c r="AO5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44652</v>
       </c>
       <c r="AP5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44653</v>
       </c>
       <c r="AQ5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44654</v>
       </c>
       <c r="AR5" s="13">
@@ -1820,23 +1886,23 @@
         <v>44656</v>
       </c>
       <c r="AT5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44657</v>
       </c>
       <c r="AU5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44658</v>
       </c>
       <c r="AV5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44659</v>
       </c>
       <c r="AW5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44660</v>
       </c>
       <c r="AX5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44661</v>
       </c>
       <c r="AY5" s="13">
@@ -1848,23 +1914,23 @@
         <v>44663</v>
       </c>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="4">AZ5+1</f>
         <v>44664</v>
       </c>
       <c r="BB5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44665</v>
       </c>
       <c r="BC5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44666</v>
       </c>
       <c r="BD5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44667</v>
       </c>
       <c r="BE5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44668</v>
       </c>
       <c r="BF5" s="13">
@@ -1876,27 +1942,167 @@
         <v>44670</v>
       </c>
       <c r="BH5" s="12">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="5">BG5+1</f>
         <v>44671</v>
       </c>
       <c r="BI5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44672</v>
       </c>
       <c r="BJ5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44673</v>
       </c>
       <c r="BK5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44674</v>
       </c>
       <c r="BL5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44675</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM5" s="13">
+        <f>BL5+1</f>
+        <v>44676</v>
+      </c>
+      <c r="BN5" s="12">
+        <f>BM5+1</f>
+        <v>44677</v>
+      </c>
+      <c r="BO5" s="12">
+        <f t="shared" ref="BO5" si="6">BN5+1</f>
+        <v>44678</v>
+      </c>
+      <c r="BP5" s="12">
+        <f t="shared" ref="BP5" si="7">BO5+1</f>
+        <v>44679</v>
+      </c>
+      <c r="BQ5" s="12">
+        <f t="shared" ref="BQ5" si="8">BP5+1</f>
+        <v>44680</v>
+      </c>
+      <c r="BR5" s="12">
+        <f t="shared" ref="BR5" si="9">BQ5+1</f>
+        <v>44681</v>
+      </c>
+      <c r="BS5" s="14">
+        <f t="shared" ref="BS5" si="10">BR5+1</f>
+        <v>44682</v>
+      </c>
+      <c r="BT5" s="13">
+        <f>BS5+1</f>
+        <v>44683</v>
+      </c>
+      <c r="BU5" s="12">
+        <f>BT5+1</f>
+        <v>44684</v>
+      </c>
+      <c r="BV5" s="12">
+        <f t="shared" ref="BV5" si="11">BU5+1</f>
+        <v>44685</v>
+      </c>
+      <c r="BW5" s="12">
+        <f t="shared" ref="BW5" si="12">BV5+1</f>
+        <v>44686</v>
+      </c>
+      <c r="BX5" s="12">
+        <f t="shared" ref="BX5" si="13">BW5+1</f>
+        <v>44687</v>
+      </c>
+      <c r="BY5" s="12">
+        <f t="shared" ref="BY5" si="14">BX5+1</f>
+        <v>44688</v>
+      </c>
+      <c r="BZ5" s="14">
+        <f t="shared" ref="BZ5:CB5" si="15">BY5+1</f>
+        <v>44689</v>
+      </c>
+      <c r="CA5" s="13">
+        <f t="shared" si="15"/>
+        <v>44690</v>
+      </c>
+      <c r="CB5" s="12">
+        <f t="shared" si="15"/>
+        <v>44691</v>
+      </c>
+      <c r="CC5" s="12">
+        <f t="shared" ref="CC5" si="16">CB5+1</f>
+        <v>44692</v>
+      </c>
+      <c r="CD5" s="12">
+        <f t="shared" ref="CD5" si="17">CC5+1</f>
+        <v>44693</v>
+      </c>
+      <c r="CE5" s="12">
+        <f t="shared" ref="CE5" si="18">CD5+1</f>
+        <v>44694</v>
+      </c>
+      <c r="CF5" s="12">
+        <f t="shared" ref="CF5" si="19">CE5+1</f>
+        <v>44695</v>
+      </c>
+      <c r="CG5" s="14">
+        <f t="shared" ref="CG5:CI5" si="20">CF5+1</f>
+        <v>44696</v>
+      </c>
+      <c r="CH5" s="13">
+        <f t="shared" si="20"/>
+        <v>44697</v>
+      </c>
+      <c r="CI5" s="12">
+        <f t="shared" si="20"/>
+        <v>44698</v>
+      </c>
+      <c r="CJ5" s="12">
+        <f t="shared" ref="CJ5" si="21">CI5+1</f>
+        <v>44699</v>
+      </c>
+      <c r="CK5" s="12">
+        <f t="shared" ref="CK5" si="22">CJ5+1</f>
+        <v>44700</v>
+      </c>
+      <c r="CL5" s="12">
+        <f t="shared" ref="CL5" si="23">CK5+1</f>
+        <v>44701</v>
+      </c>
+      <c r="CM5" s="12">
+        <f t="shared" ref="CM5" si="24">CL5+1</f>
+        <v>44702</v>
+      </c>
+      <c r="CN5" s="14">
+        <f t="shared" ref="CN5:CP5" si="25">CM5+1</f>
+        <v>44703</v>
+      </c>
+      <c r="CO5" s="13">
+        <f t="shared" si="25"/>
+        <v>44704</v>
+      </c>
+      <c r="CP5" s="12">
+        <f t="shared" si="25"/>
+        <v>44705</v>
+      </c>
+      <c r="CQ5" s="12">
+        <f t="shared" ref="CQ5" si="26">CP5+1</f>
+        <v>44706</v>
+      </c>
+      <c r="CR5" s="12">
+        <f t="shared" ref="CR5" si="27">CQ5+1</f>
+        <v>44707</v>
+      </c>
+      <c r="CS5" s="12">
+        <f t="shared" ref="CS5" si="28">CR5+1</f>
+        <v>44708</v>
+      </c>
+      <c r="CT5" s="12">
+        <f t="shared" ref="CT5" si="29">CS5+1</f>
+        <v>44709</v>
+      </c>
+      <c r="CU5" s="14">
+        <f t="shared" ref="CU5" si="30">CT5+1</f>
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
@@ -1918,231 +2124,371 @@
         <v>7</v>
       </c>
       <c r="I6" s="15" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="31">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="15" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="32">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="M6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>F</v>
       </c>
       <c r="N6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="O6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="P6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>M</v>
       </c>
       <c r="Q6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>W</v>
       </c>
       <c r="S6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="T6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>F</v>
       </c>
       <c r="U6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="V6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="W6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>M</v>
       </c>
       <c r="X6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="Y6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>W</v>
       </c>
       <c r="Z6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="AA6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>F</v>
       </c>
       <c r="AB6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AC6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AD6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>M</v>
       </c>
       <c r="AE6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="AF6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>W</v>
       </c>
       <c r="AG6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="AH6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>F</v>
       </c>
       <c r="AI6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AK6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>M</v>
       </c>
       <c r="AL6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="AM6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>W</v>
       </c>
       <c r="AN6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>T</v>
       </c>
       <c r="AO6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>F</v>
       </c>
       <c r="AP6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>S</v>
       </c>
       <c r="AR6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>M</v>
       </c>
       <c r="AS6" s="15" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="33">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>W</v>
       </c>
       <c r="AU6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>T</v>
       </c>
       <c r="AV6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>F</v>
       </c>
       <c r="AW6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
       <c r="AX6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
       <c r="AY6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>T</v>
       </c>
       <c r="BA6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>W</v>
       </c>
       <c r="BB6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>T</v>
       </c>
       <c r="BC6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>F</v>
       </c>
       <c r="BD6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
       <c r="BE6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
       <c r="BF6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>M</v>
       </c>
       <c r="BG6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>T</v>
       </c>
       <c r="BH6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>W</v>
       </c>
       <c r="BI6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>F</v>
       </c>
       <c r="BK6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
       <c r="BL6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>S</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM6" s="15" t="str">
+        <f t="shared" ref="BM6:BS6" si="34">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BN6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
+      </c>
+      <c r="BO6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>W</v>
+      </c>
+      <c r="BP6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
+      </c>
+      <c r="BQ6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>F</v>
+      </c>
+      <c r="BR6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>S</v>
+      </c>
+      <c r="BS6" s="15" t="str">
+        <f t="shared" si="34"/>
+        <v>S</v>
+      </c>
+      <c r="BT6" s="15" t="str">
+        <f t="shared" ref="BT6:BZ6" si="35">LEFT(TEXT(BT5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BU6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>T</v>
+      </c>
+      <c r="BV6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>W</v>
+      </c>
+      <c r="BW6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>T</v>
+      </c>
+      <c r="BX6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>F</v>
+      </c>
+      <c r="BY6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>S</v>
+      </c>
+      <c r="BZ6" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="15" t="str">
+        <f t="shared" ref="CA6:CU6" si="36">LEFT(TEXT(CA5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="26" t="s">
         <v>32</v>
@@ -2153,7 +2499,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25" t="str">
-        <f t="shared" ref="H7:H27" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H28" si="37">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="72"/>
@@ -2212,11 +2558,46 @@
       <c r="BJ7" s="72"/>
       <c r="BK7" s="72"/>
       <c r="BL7" s="72"/>
-    </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM7" s="72"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="72"/>
+      <c r="BY7" s="72"/>
+      <c r="BZ7" s="72"/>
+      <c r="CA7" s="72"/>
+      <c r="CB7" s="72"/>
+      <c r="CC7" s="72"/>
+      <c r="CD7" s="72"/>
+      <c r="CE7" s="72"/>
+      <c r="CF7" s="72"/>
+      <c r="CG7" s="72"/>
+      <c r="CH7" s="72"/>
+      <c r="CI7" s="72"/>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="72"/>
+      <c r="CL7" s="72"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="72"/>
+      <c r="CP7" s="72"/>
+      <c r="CQ7" s="72"/>
+      <c r="CR7" s="72"/>
+      <c r="CS7" s="72"/>
+      <c r="CT7" s="72"/>
+      <c r="CU7" s="72"/>
+    </row>
+    <row r="8" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33">
@@ -2230,7 +2611,7 @@
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>99</v>
       </c>
       <c r="I8" s="72"/>
@@ -2289,11 +2670,46 @@
       <c r="BJ8" s="72"/>
       <c r="BK8" s="72"/>
       <c r="BL8" s="72"/>
-    </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="72"/>
+      <c r="CB8" s="72"/>
+      <c r="CC8" s="72"/>
+      <c r="CD8" s="72"/>
+      <c r="CE8" s="72"/>
+      <c r="CF8" s="72"/>
+      <c r="CG8" s="72"/>
+      <c r="CH8" s="72"/>
+      <c r="CI8" s="72"/>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="72"/>
+      <c r="CP8" s="72"/>
+      <c r="CQ8" s="72"/>
+      <c r="CR8" s="72"/>
+      <c r="CS8" s="72"/>
+      <c r="CT8" s="72"/>
+      <c r="CU8" s="72"/>
+    </row>
+    <row r="9" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33">
@@ -2307,7 +2723,7 @@
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="I9" s="72"/>
@@ -2366,8 +2782,43 @@
       <c r="BJ9" s="72"/>
       <c r="BK9" s="72"/>
       <c r="BL9" s="72"/>
-    </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="72"/>
+      <c r="BZ9" s="72"/>
+      <c r="CA9" s="72"/>
+      <c r="CB9" s="72"/>
+      <c r="CC9" s="72"/>
+      <c r="CD9" s="72"/>
+      <c r="CE9" s="72"/>
+      <c r="CF9" s="72"/>
+      <c r="CG9" s="72"/>
+      <c r="CH9" s="72"/>
+      <c r="CI9" s="72"/>
+      <c r="CJ9" s="72"/>
+      <c r="CK9" s="72"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="72"/>
+      <c r="CN9" s="72"/>
+      <c r="CO9" s="72"/>
+      <c r="CP9" s="72"/>
+      <c r="CQ9" s="72"/>
+      <c r="CR9" s="72"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="72"/>
+      <c r="CU9" s="72"/>
+    </row>
+    <row r="10" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="36" t="s">
         <v>31</v>
@@ -2378,7 +2829,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I10" s="72"/>
@@ -2437,8 +2888,43 @@
       <c r="BJ10" s="72"/>
       <c r="BK10" s="72"/>
       <c r="BL10" s="72"/>
-    </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM10" s="72"/>
+      <c r="BN10" s="72"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BT10" s="72"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="72"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="72"/>
+      <c r="BY10" s="72"/>
+      <c r="BZ10" s="72"/>
+      <c r="CA10" s="72"/>
+      <c r="CB10" s="72"/>
+      <c r="CC10" s="72"/>
+      <c r="CD10" s="72"/>
+      <c r="CE10" s="72"/>
+      <c r="CF10" s="72"/>
+      <c r="CG10" s="72"/>
+      <c r="CH10" s="72"/>
+      <c r="CI10" s="72"/>
+      <c r="CJ10" s="72"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="72"/>
+      <c r="CM10" s="72"/>
+      <c r="CN10" s="72"/>
+      <c r="CO10" s="72"/>
+      <c r="CP10" s="72"/>
+      <c r="CQ10" s="72"/>
+      <c r="CR10" s="72"/>
+      <c r="CS10" s="72"/>
+      <c r="CT10" s="72"/>
+      <c r="CU10" s="72"/>
+    </row>
+    <row r="11" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="41" t="s">
         <v>25</v>
@@ -2455,7 +2941,7 @@
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="I11" s="72"/>
@@ -2514,8 +3000,43 @@
       <c r="BJ11" s="72"/>
       <c r="BK11" s="72"/>
       <c r="BL11" s="72"/>
-    </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM11" s="72"/>
+      <c r="BN11" s="72"/>
+      <c r="BO11" s="72"/>
+      <c r="BP11" s="72"/>
+      <c r="BQ11" s="72"/>
+      <c r="BR11" s="72"/>
+      <c r="BS11" s="72"/>
+      <c r="BT11" s="72"/>
+      <c r="BU11" s="72"/>
+      <c r="BV11" s="72"/>
+      <c r="BW11" s="72"/>
+      <c r="BX11" s="72"/>
+      <c r="BY11" s="72"/>
+      <c r="BZ11" s="72"/>
+      <c r="CA11" s="72"/>
+      <c r="CB11" s="72"/>
+      <c r="CC11" s="72"/>
+      <c r="CD11" s="72"/>
+      <c r="CE11" s="72"/>
+      <c r="CF11" s="72"/>
+      <c r="CG11" s="72"/>
+      <c r="CH11" s="72"/>
+      <c r="CI11" s="72"/>
+      <c r="CJ11" s="72"/>
+      <c r="CK11" s="72"/>
+      <c r="CL11" s="72"/>
+      <c r="CM11" s="72"/>
+      <c r="CN11" s="72"/>
+      <c r="CO11" s="72"/>
+      <c r="CP11" s="72"/>
+      <c r="CQ11" s="72"/>
+      <c r="CR11" s="72"/>
+      <c r="CS11" s="72"/>
+      <c r="CT11" s="72"/>
+      <c r="CU11" s="72"/>
+    </row>
+    <row r="12" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="41" t="s">
         <v>26</v>
@@ -2532,7 +3053,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="I12" s="72"/>
@@ -2591,8 +3112,43 @@
       <c r="BJ12" s="72"/>
       <c r="BK12" s="72"/>
       <c r="BL12" s="72"/>
-    </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="72"/>
+      <c r="BO12" s="72"/>
+      <c r="BP12" s="72"/>
+      <c r="BQ12" s="72"/>
+      <c r="BR12" s="72"/>
+      <c r="BS12" s="72"/>
+      <c r="BT12" s="72"/>
+      <c r="BU12" s="72"/>
+      <c r="BV12" s="72"/>
+      <c r="BW12" s="72"/>
+      <c r="BX12" s="72"/>
+      <c r="BY12" s="72"/>
+      <c r="BZ12" s="72"/>
+      <c r="CA12" s="72"/>
+      <c r="CB12" s="72"/>
+      <c r="CC12" s="72"/>
+      <c r="CD12" s="72"/>
+      <c r="CE12" s="72"/>
+      <c r="CF12" s="72"/>
+      <c r="CG12" s="72"/>
+      <c r="CH12" s="72"/>
+      <c r="CI12" s="72"/>
+      <c r="CJ12" s="72"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="72"/>
+      <c r="CM12" s="72"/>
+      <c r="CN12" s="72"/>
+      <c r="CO12" s="72"/>
+      <c r="CP12" s="72"/>
+      <c r="CQ12" s="72"/>
+      <c r="CR12" s="72"/>
+      <c r="CS12" s="72"/>
+      <c r="CT12" s="72"/>
+      <c r="CU12" s="72"/>
+    </row>
+    <row r="13" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="41" t="s">
         <v>27</v>
@@ -2609,7 +3165,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="I13" s="72"/>
@@ -2668,15 +3224,50 @@
       <c r="BJ13" s="72"/>
       <c r="BK13" s="72"/>
       <c r="BL13" s="72"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="72"/>
+      <c r="BO13" s="72"/>
+      <c r="BP13" s="72"/>
+      <c r="BQ13" s="72"/>
+      <c r="BR13" s="72"/>
+      <c r="BS13" s="72"/>
+      <c r="BT13" s="72"/>
+      <c r="BU13" s="72"/>
+      <c r="BV13" s="72"/>
+      <c r="BW13" s="72"/>
+      <c r="BX13" s="72"/>
+      <c r="BY13" s="72"/>
+      <c r="BZ13" s="72"/>
+      <c r="CA13" s="72"/>
+      <c r="CB13" s="72"/>
+      <c r="CC13" s="72"/>
+      <c r="CD13" s="72"/>
+      <c r="CE13" s="72"/>
+      <c r="CF13" s="72"/>
+      <c r="CG13" s="72"/>
+      <c r="CH13" s="72"/>
+      <c r="CI13" s="72"/>
+      <c r="CJ13" s="72"/>
+      <c r="CK13" s="72"/>
+      <c r="CL13" s="72"/>
+      <c r="CM13" s="72"/>
+      <c r="CN13" s="72"/>
+      <c r="CO13" s="72"/>
+      <c r="CP13" s="72"/>
+      <c r="CQ13" s="72"/>
+      <c r="CR13" s="72"/>
+      <c r="CS13" s="72"/>
+      <c r="CT13" s="72"/>
+      <c r="CU13" s="72"/>
+    </row>
+    <row r="14" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="44">
         <v>44640</v>
@@ -2686,7 +3277,7 @@
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>29</v>
       </c>
       <c r="I14" s="72"/>
@@ -2745,11 +3336,46 @@
       <c r="BJ14" s="72"/>
       <c r="BK14" s="72"/>
       <c r="BL14" s="72"/>
-    </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM14" s="72"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="72"/>
+      <c r="BP14" s="72"/>
+      <c r="BQ14" s="72"/>
+      <c r="BR14" s="72"/>
+      <c r="BS14" s="72"/>
+      <c r="BT14" s="72"/>
+      <c r="BU14" s="72"/>
+      <c r="BV14" s="72"/>
+      <c r="BW14" s="72"/>
+      <c r="BX14" s="72"/>
+      <c r="BY14" s="72"/>
+      <c r="BZ14" s="72"/>
+      <c r="CA14" s="72"/>
+      <c r="CB14" s="72"/>
+      <c r="CC14" s="72"/>
+      <c r="CD14" s="72"/>
+      <c r="CE14" s="72"/>
+      <c r="CF14" s="72"/>
+      <c r="CG14" s="72"/>
+      <c r="CH14" s="72"/>
+      <c r="CI14" s="72"/>
+      <c r="CJ14" s="72"/>
+      <c r="CK14" s="72"/>
+      <c r="CL14" s="72"/>
+      <c r="CM14" s="72"/>
+      <c r="CN14" s="72"/>
+      <c r="CO14" s="72"/>
+      <c r="CP14" s="72"/>
+      <c r="CQ14" s="72"/>
+      <c r="CR14" s="72"/>
+      <c r="CS14" s="72"/>
+      <c r="CT14" s="72"/>
+      <c r="CU14" s="72"/>
+    </row>
+    <row r="15" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="43">
@@ -2762,10 +3388,7 @@
         <v>44687</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="25">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
+      <c r="H15" s="25"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
@@ -2782,7 +3405,7 @@
       <c r="V15" s="72"/>
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
+      <c r="Y15" s="73"/>
       <c r="Z15" s="72"/>
       <c r="AA15" s="72"/>
       <c r="AB15" s="72"/>
@@ -2822,21 +3445,59 @@
       <c r="BJ15" s="72"/>
       <c r="BK15" s="72"/>
       <c r="BL15" s="72"/>
-    </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="72"/>
+      <c r="BQ15" s="72"/>
+      <c r="BR15" s="72"/>
+      <c r="BS15" s="72"/>
+      <c r="BT15" s="72"/>
+      <c r="BU15" s="72"/>
+      <c r="BV15" s="72"/>
+      <c r="BW15" s="72"/>
+      <c r="BX15" s="72"/>
+      <c r="BY15" s="72"/>
+      <c r="BZ15" s="72"/>
+      <c r="CA15" s="72"/>
+      <c r="CB15" s="72"/>
+      <c r="CC15" s="72"/>
+      <c r="CD15" s="72"/>
+      <c r="CE15" s="72"/>
+      <c r="CF15" s="72"/>
+      <c r="CG15" s="72"/>
+      <c r="CH15" s="72"/>
+      <c r="CI15" s="72"/>
+      <c r="CJ15" s="72"/>
+      <c r="CK15" s="72"/>
+      <c r="CL15" s="72"/>
+      <c r="CM15" s="72"/>
+      <c r="CN15" s="72"/>
+      <c r="CO15" s="72"/>
+      <c r="CP15" s="72"/>
+      <c r="CQ15" s="72"/>
+      <c r="CR15" s="72"/>
+      <c r="CS15" s="72"/>
+      <c r="CT15" s="72"/>
+      <c r="CU15" s="72"/>
+    </row>
+    <row r="16" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <v>44647</v>
+      </c>
+      <c r="F16" s="45">
+        <v>44687</v>
+      </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H16" s="25"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
@@ -2853,7 +3514,7 @@
       <c r="V16" s="72"/>
       <c r="W16" s="72"/>
       <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="72"/>
       <c r="AA16" s="72"/>
       <c r="AB16" s="72"/>
@@ -2893,26 +3554,61 @@
       <c r="BJ16" s="72"/>
       <c r="BK16" s="72"/>
       <c r="BL16" s="72"/>
-    </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="72"/>
+      <c r="BR16" s="72"/>
+      <c r="BS16" s="72"/>
+      <c r="BT16" s="72"/>
+      <c r="BU16" s="72"/>
+      <c r="BV16" s="72"/>
+      <c r="BW16" s="72"/>
+      <c r="BX16" s="72"/>
+      <c r="BY16" s="72"/>
+      <c r="BZ16" s="72"/>
+      <c r="CA16" s="72"/>
+      <c r="CB16" s="72"/>
+      <c r="CC16" s="72"/>
+      <c r="CD16" s="72"/>
+      <c r="CE16" s="72"/>
+      <c r="CF16" s="72"/>
+      <c r="CG16" s="72"/>
+      <c r="CH16" s="72"/>
+      <c r="CI16" s="72"/>
+      <c r="CJ16" s="72"/>
+      <c r="CK16" s="72"/>
+      <c r="CL16" s="72"/>
+      <c r="CM16" s="72"/>
+      <c r="CN16" s="72"/>
+      <c r="CO16" s="72"/>
+      <c r="CP16" s="72"/>
+      <c r="CQ16" s="72"/>
+      <c r="CR16" s="72"/>
+      <c r="CS16" s="72"/>
+      <c r="CT16" s="72"/>
+      <c r="CU16" s="72"/>
+    </row>
+    <row r="17" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53">
-        <v>1</v>
-      </c>
-      <c r="E17" s="54">
-        <v>44619</v>
-      </c>
-      <c r="F17" s="54">
-        <v>44625</v>
+      <c r="B17" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43">
+        <v>0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>44647</v>
+      </c>
+      <c r="F17" s="45">
+        <v>44687</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="37"/>
+        <v>41</v>
       </c>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
@@ -2970,26 +3666,55 @@
       <c r="BJ17" s="72"/>
       <c r="BK17" s="72"/>
       <c r="BL17" s="72"/>
-    </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="72"/>
+      <c r="BR17" s="72"/>
+      <c r="BS17" s="72"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="72"/>
+      <c r="BY17" s="72"/>
+      <c r="BZ17" s="72"/>
+      <c r="CA17" s="72"/>
+      <c r="CB17" s="72"/>
+      <c r="CC17" s="72"/>
+      <c r="CD17" s="72"/>
+      <c r="CE17" s="72"/>
+      <c r="CF17" s="72"/>
+      <c r="CG17" s="72"/>
+      <c r="CH17" s="72"/>
+      <c r="CI17" s="72"/>
+      <c r="CJ17" s="72"/>
+      <c r="CK17" s="72"/>
+      <c r="CL17" s="72"/>
+      <c r="CM17" s="72"/>
+      <c r="CN17" s="72"/>
+      <c r="CO17" s="72"/>
+      <c r="CP17" s="72"/>
+      <c r="CQ17" s="72"/>
+      <c r="CR17" s="72"/>
+      <c r="CS17" s="72"/>
+      <c r="CT17" s="72"/>
+      <c r="CU17" s="72"/>
+    </row>
+    <row r="18" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53">
-        <v>1</v>
-      </c>
-      <c r="E18" s="54">
-        <v>44640</v>
-      </c>
-      <c r="F18" s="54">
-        <v>44647</v>
-      </c>
+      <c r="B18" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="25">
-        <f t="shared" si="6"/>
-        <v>8</v>
+      <c r="H18" s="25" t="str">
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -3047,26 +3772,61 @@
       <c r="BJ18" s="72"/>
       <c r="BK18" s="72"/>
       <c r="BL18" s="72"/>
-    </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
+      <c r="BP18" s="72"/>
+      <c r="BQ18" s="72"/>
+      <c r="BR18" s="72"/>
+      <c r="BS18" s="72"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="72"/>
+      <c r="CA18" s="72"/>
+      <c r="CB18" s="72"/>
+      <c r="CC18" s="72"/>
+      <c r="CD18" s="72"/>
+      <c r="CE18" s="72"/>
+      <c r="CF18" s="72"/>
+      <c r="CG18" s="72"/>
+      <c r="CH18" s="72"/>
+      <c r="CI18" s="72"/>
+      <c r="CJ18" s="72"/>
+      <c r="CK18" s="72"/>
+      <c r="CL18" s="72"/>
+      <c r="CM18" s="72"/>
+      <c r="CN18" s="72"/>
+      <c r="CO18" s="72"/>
+      <c r="CP18" s="72"/>
+      <c r="CQ18" s="72"/>
+      <c r="CR18" s="72"/>
+      <c r="CS18" s="72"/>
+      <c r="CT18" s="72"/>
+      <c r="CU18" s="72"/>
+    </row>
+    <row r="19" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="54">
-        <v>44654</v>
-      </c>
-      <c r="F19" s="55">
-        <v>44666</v>
+        <v>44619</v>
+      </c>
+      <c r="F19" s="54">
+        <v>44625</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
@@ -3124,26 +3884,61 @@
       <c r="BJ19" s="72"/>
       <c r="BK19" s="72"/>
       <c r="BL19" s="72"/>
-    </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="72"/>
+      <c r="BP19" s="72"/>
+      <c r="BQ19" s="72"/>
+      <c r="BR19" s="72"/>
+      <c r="BS19" s="72"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="72"/>
+      <c r="BX19" s="72"/>
+      <c r="BY19" s="72"/>
+      <c r="BZ19" s="72"/>
+      <c r="CA19" s="72"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="72"/>
+      <c r="CD19" s="72"/>
+      <c r="CE19" s="72"/>
+      <c r="CF19" s="72"/>
+      <c r="CG19" s="72"/>
+      <c r="CH19" s="72"/>
+      <c r="CI19" s="72"/>
+      <c r="CJ19" s="72"/>
+      <c r="CK19" s="72"/>
+      <c r="CL19" s="72"/>
+      <c r="CM19" s="72"/>
+      <c r="CN19" s="72"/>
+      <c r="CO19" s="72"/>
+      <c r="CP19" s="72"/>
+      <c r="CQ19" s="72"/>
+      <c r="CR19" s="72"/>
+      <c r="CS19" s="72"/>
+      <c r="CT19" s="72"/>
+      <c r="CU19" s="72"/>
+    </row>
+    <row r="20" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="54">
-        <v>44668</v>
+        <v>44640</v>
       </c>
       <c r="F20" s="54">
-        <v>44680</v>
+        <v>44647</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="37"/>
+        <v>8</v>
       </c>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
@@ -3201,20 +3996,61 @@
       <c r="BJ20" s="72"/>
       <c r="BK20" s="72"/>
       <c r="BL20" s="72"/>
-    </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM20" s="72"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="72"/>
+      <c r="BP20" s="72"/>
+      <c r="BQ20" s="72"/>
+      <c r="BR20" s="72"/>
+      <c r="BS20" s="72"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="72"/>
+      <c r="CA20" s="72"/>
+      <c r="CB20" s="72"/>
+      <c r="CC20" s="72"/>
+      <c r="CD20" s="72"/>
+      <c r="CE20" s="72"/>
+      <c r="CF20" s="72"/>
+      <c r="CG20" s="72"/>
+      <c r="CH20" s="72"/>
+      <c r="CI20" s="72"/>
+      <c r="CJ20" s="72"/>
+      <c r="CK20" s="72"/>
+      <c r="CL20" s="72"/>
+      <c r="CM20" s="72"/>
+      <c r="CN20" s="72"/>
+      <c r="CO20" s="72"/>
+      <c r="CP20" s="72"/>
+      <c r="CQ20" s="72"/>
+      <c r="CR20" s="72"/>
+      <c r="CS20" s="72"/>
+      <c r="CT20" s="72"/>
+      <c r="CU20" s="72"/>
+    </row>
+    <row r="21" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53">
+        <v>1</v>
+      </c>
+      <c r="E21" s="54">
+        <v>44654</v>
+      </c>
+      <c r="F21" s="55">
+        <v>44666</v>
+      </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H21" s="25">
+        <f t="shared" si="37"/>
+        <v>13</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
@@ -3272,26 +4108,61 @@
       <c r="BJ21" s="72"/>
       <c r="BK21" s="72"/>
       <c r="BL21" s="72"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM21" s="72"/>
+      <c r="BN21" s="72"/>
+      <c r="BO21" s="72"/>
+      <c r="BP21" s="72"/>
+      <c r="BQ21" s="72"/>
+      <c r="BR21" s="72"/>
+      <c r="BS21" s="72"/>
+      <c r="BT21" s="72"/>
+      <c r="BU21" s="72"/>
+      <c r="BV21" s="72"/>
+      <c r="BW21" s="72"/>
+      <c r="BX21" s="72"/>
+      <c r="BY21" s="72"/>
+      <c r="BZ21" s="72"/>
+      <c r="CA21" s="72"/>
+      <c r="CB21" s="72"/>
+      <c r="CC21" s="72"/>
+      <c r="CD21" s="72"/>
+      <c r="CE21" s="72"/>
+      <c r="CF21" s="72"/>
+      <c r="CG21" s="72"/>
+      <c r="CH21" s="72"/>
+      <c r="CI21" s="72"/>
+      <c r="CJ21" s="72"/>
+      <c r="CK21" s="72"/>
+      <c r="CL21" s="72"/>
+      <c r="CM21" s="72"/>
+      <c r="CN21" s="72"/>
+      <c r="CO21" s="72"/>
+      <c r="CP21" s="72"/>
+      <c r="CQ21" s="72"/>
+      <c r="CR21" s="72"/>
+      <c r="CS21" s="72"/>
+      <c r="CT21" s="72"/>
+      <c r="CU21" s="72"/>
+    </row>
+    <row r="22" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63">
+      <c r="B22" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
-        <v>44687</v>
-      </c>
-      <c r="F22" s="65">
-        <v>44709</v>
+      <c r="E22" s="54">
+        <v>44668</v>
+      </c>
+      <c r="F22" s="54">
+        <v>44680</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="37"/>
+        <v>13</v>
       </c>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
@@ -3349,26 +4220,55 @@
       <c r="BJ22" s="72"/>
       <c r="BK22" s="72"/>
       <c r="BL22" s="72"/>
-    </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM22" s="72"/>
+      <c r="BN22" s="72"/>
+      <c r="BO22" s="72"/>
+      <c r="BP22" s="72"/>
+      <c r="BQ22" s="72"/>
+      <c r="BR22" s="72"/>
+      <c r="BS22" s="72"/>
+      <c r="BT22" s="72"/>
+      <c r="BU22" s="72"/>
+      <c r="BV22" s="72"/>
+      <c r="BW22" s="72"/>
+      <c r="BX22" s="72"/>
+      <c r="BY22" s="72"/>
+      <c r="BZ22" s="72"/>
+      <c r="CA22" s="72"/>
+      <c r="CB22" s="72"/>
+      <c r="CC22" s="72"/>
+      <c r="CD22" s="72"/>
+      <c r="CE22" s="72"/>
+      <c r="CF22" s="72"/>
+      <c r="CG22" s="72"/>
+      <c r="CH22" s="72"/>
+      <c r="CI22" s="72"/>
+      <c r="CJ22" s="72"/>
+      <c r="CK22" s="72"/>
+      <c r="CL22" s="72"/>
+      <c r="CM22" s="72"/>
+      <c r="CN22" s="72"/>
+      <c r="CO22" s="72"/>
+      <c r="CP22" s="72"/>
+      <c r="CQ22" s="72"/>
+      <c r="CR22" s="72"/>
+      <c r="CS22" s="72"/>
+      <c r="CT22" s="72"/>
+      <c r="CU22" s="72"/>
+    </row>
+    <row r="23" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63">
-        <v>0</v>
-      </c>
-      <c r="E23" s="64">
-        <v>44688</v>
-      </c>
-      <c r="F23" s="64">
-        <v>44709</v>
-      </c>
+      <c r="B23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="25">
-        <f t="shared" si="6"/>
-        <v>22</v>
+      <c r="H23" s="25" t="str">
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
@@ -3426,18 +4326,61 @@
       <c r="BJ23" s="72"/>
       <c r="BK23" s="72"/>
       <c r="BL23" s="72"/>
-    </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM23" s="72"/>
+      <c r="BN23" s="72"/>
+      <c r="BO23" s="72"/>
+      <c r="BP23" s="72"/>
+      <c r="BQ23" s="72"/>
+      <c r="BR23" s="72"/>
+      <c r="BS23" s="72"/>
+      <c r="BT23" s="72"/>
+      <c r="BU23" s="72"/>
+      <c r="BV23" s="72"/>
+      <c r="BW23" s="72"/>
+      <c r="BX23" s="72"/>
+      <c r="BY23" s="72"/>
+      <c r="BZ23" s="72"/>
+      <c r="CA23" s="72"/>
+      <c r="CB23" s="72"/>
+      <c r="CC23" s="72"/>
+      <c r="CD23" s="72"/>
+      <c r="CE23" s="72"/>
+      <c r="CF23" s="72"/>
+      <c r="CG23" s="72"/>
+      <c r="CH23" s="72"/>
+      <c r="CI23" s="72"/>
+      <c r="CJ23" s="72"/>
+      <c r="CK23" s="72"/>
+      <c r="CL23" s="72"/>
+      <c r="CM23" s="72"/>
+      <c r="CN23" s="72"/>
+      <c r="CO23" s="72"/>
+      <c r="CP23" s="72"/>
+      <c r="CQ23" s="72"/>
+      <c r="CR23" s="72"/>
+      <c r="CS23" s="72"/>
+      <c r="CT23" s="72"/>
+      <c r="CU23" s="72"/>
+    </row>
+    <row r="24" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="B24" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63">
+        <v>0</v>
+      </c>
+      <c r="E24" s="64">
+        <v>44687</v>
+      </c>
+      <c r="F24" s="65">
+        <v>44709</v>
+      </c>
       <c r="G24" s="25"/>
-      <c r="H24" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H24" s="25">
+        <f t="shared" si="37"/>
+        <v>23</v>
       </c>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
@@ -3495,18 +4438,61 @@
       <c r="BJ24" s="72"/>
       <c r="BK24" s="72"/>
       <c r="BL24" s="72"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM24" s="72"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="72"/>
+      <c r="BR24" s="72"/>
+      <c r="BS24" s="72"/>
+      <c r="BT24" s="72"/>
+      <c r="BU24" s="72"/>
+      <c r="BV24" s="72"/>
+      <c r="BW24" s="72"/>
+      <c r="BX24" s="72"/>
+      <c r="BY24" s="72"/>
+      <c r="BZ24" s="72"/>
+      <c r="CA24" s="72"/>
+      <c r="CB24" s="72"/>
+      <c r="CC24" s="72"/>
+      <c r="CD24" s="72"/>
+      <c r="CE24" s="72"/>
+      <c r="CF24" s="72"/>
+      <c r="CG24" s="72"/>
+      <c r="CH24" s="72"/>
+      <c r="CI24" s="72"/>
+      <c r="CJ24" s="72"/>
+      <c r="CK24" s="72"/>
+      <c r="CL24" s="72"/>
+      <c r="CM24" s="72"/>
+      <c r="CN24" s="72"/>
+      <c r="CO24" s="72"/>
+      <c r="CP24" s="72"/>
+      <c r="CQ24" s="72"/>
+      <c r="CR24" s="72"/>
+      <c r="CS24" s="72"/>
+      <c r="CT24" s="72"/>
+      <c r="CU24" s="72"/>
+    </row>
+    <row r="25" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="B25" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63">
+        <v>0</v>
+      </c>
+      <c r="E25" s="64">
+        <v>44688</v>
+      </c>
+      <c r="F25" s="64">
+        <v>44709</v>
+      </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H25" s="25">
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
@@ -3564,19 +4550,59 @@
       <c r="BJ25" s="72"/>
       <c r="BK25" s="72"/>
       <c r="BL25" s="72"/>
-    </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM25" s="72"/>
+      <c r="BN25" s="72"/>
+      <c r="BO25" s="72"/>
+      <c r="BP25" s="72"/>
+      <c r="BQ25" s="72"/>
+      <c r="BR25" s="72"/>
+      <c r="BS25" s="72"/>
+      <c r="BT25" s="72"/>
+      <c r="BU25" s="72"/>
+      <c r="BV25" s="72"/>
+      <c r="BW25" s="72"/>
+      <c r="BX25" s="72"/>
+      <c r="BY25" s="72"/>
+      <c r="BZ25" s="72"/>
+      <c r="CA25" s="72"/>
+      <c r="CB25" s="72"/>
+      <c r="CC25" s="72"/>
+      <c r="CD25" s="72"/>
+      <c r="CE25" s="72"/>
+      <c r="CF25" s="72"/>
+      <c r="CG25" s="72"/>
+      <c r="CH25" s="72"/>
+      <c r="CI25" s="72"/>
+      <c r="CJ25" s="72"/>
+      <c r="CK25" s="72"/>
+      <c r="CL25" s="72"/>
+      <c r="CM25" s="72"/>
+      <c r="CN25" s="72"/>
+      <c r="CO25" s="72"/>
+      <c r="CP25" s="72"/>
+      <c r="CQ25" s="72"/>
+      <c r="CR25" s="72"/>
+      <c r="CS25" s="72"/>
+      <c r="CT25" s="72"/>
+      <c r="CU25" s="72"/>
+    </row>
+    <row r="26" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="B26" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63">
+        <v>0</v>
+      </c>
+      <c r="E26" s="64">
+        <v>44655</v>
+      </c>
+      <c r="F26" s="64">
+        <v>44709</v>
+      </c>
       <c r="G26" s="25"/>
-      <c r="H26" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H26" s="25"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -3633,118 +4659,297 @@
       <c r="BJ26" s="72"/>
       <c r="BK26" s="72"/>
       <c r="BL26" s="72"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM26" s="72"/>
+      <c r="BN26" s="72"/>
+      <c r="BO26" s="72"/>
+      <c r="BP26" s="72"/>
+      <c r="BQ26" s="72"/>
+      <c r="BR26" s="72"/>
+      <c r="BS26" s="72"/>
+      <c r="BT26" s="72"/>
+      <c r="BU26" s="72"/>
+      <c r="BV26" s="72"/>
+      <c r="BW26" s="72"/>
+      <c r="BX26" s="72"/>
+      <c r="BY26" s="72"/>
+      <c r="BZ26" s="72"/>
+      <c r="CA26" s="72"/>
+      <c r="CB26" s="72"/>
+      <c r="CC26" s="72"/>
+      <c r="CD26" s="72"/>
+      <c r="CE26" s="72"/>
+      <c r="CF26" s="72"/>
+      <c r="CG26" s="72"/>
+      <c r="CH26" s="72"/>
+      <c r="CI26" s="72"/>
+      <c r="CJ26" s="72"/>
+      <c r="CK26" s="72"/>
+      <c r="CL26" s="72"/>
+      <c r="CM26" s="72"/>
+      <c r="CN26" s="72"/>
+      <c r="CO26" s="72"/>
+      <c r="CP26" s="72"/>
+      <c r="CQ26" s="72"/>
+      <c r="CR26" s="72"/>
+      <c r="CS26" s="72"/>
+      <c r="CT26" s="72"/>
+      <c r="CU26" s="72"/>
+    </row>
+    <row r="27" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="72"/>
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="72"/>
+      <c r="BD27" s="72"/>
+      <c r="BE27" s="72"/>
+      <c r="BF27" s="72"/>
+      <c r="BG27" s="72"/>
+      <c r="BH27" s="72"/>
+      <c r="BI27" s="72"/>
+      <c r="BJ27" s="72"/>
+      <c r="BK27" s="72"/>
+      <c r="BL27" s="72"/>
+      <c r="BM27" s="72"/>
+      <c r="BN27" s="72"/>
+      <c r="BO27" s="72"/>
+      <c r="BP27" s="72"/>
+      <c r="BQ27" s="72"/>
+      <c r="BR27" s="72"/>
+      <c r="BS27" s="72"/>
+      <c r="BT27" s="72"/>
+      <c r="BU27" s="72"/>
+      <c r="BV27" s="72"/>
+      <c r="BW27" s="72"/>
+      <c r="BX27" s="72"/>
+      <c r="BY27" s="72"/>
+      <c r="BZ27" s="72"/>
+      <c r="CA27" s="72"/>
+      <c r="CB27" s="72"/>
+      <c r="CC27" s="72"/>
+      <c r="CD27" s="72"/>
+      <c r="CE27" s="72"/>
+      <c r="CF27" s="72"/>
+      <c r="CG27" s="72"/>
+      <c r="CH27" s="72"/>
+      <c r="CI27" s="72"/>
+      <c r="CJ27" s="72"/>
+      <c r="CK27" s="72"/>
+      <c r="CL27" s="72"/>
+      <c r="CM27" s="72"/>
+      <c r="CN27" s="72"/>
+      <c r="CO27" s="72"/>
+      <c r="CP27" s="72"/>
+      <c r="CQ27" s="72"/>
+      <c r="CR27" s="72"/>
+      <c r="CS27" s="72"/>
+      <c r="CT27" s="72"/>
+      <c r="CU27" s="72"/>
+    </row>
+    <row r="28" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71" t="str">
-        <f t="shared" si="6"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71" t="str">
+        <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="74"/>
-      <c r="AJ27" s="74"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="74"/>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="74"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="74"/>
-      <c r="AY27" s="74"/>
-      <c r="AZ27" s="74"/>
-      <c r="BA27" s="74"/>
-      <c r="BB27" s="74"/>
-      <c r="BC27" s="74"/>
-      <c r="BD27" s="74"/>
-      <c r="BE27" s="74"/>
-      <c r="BF27" s="74"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="74"/>
-      <c r="BJ27" s="74"/>
-      <c r="BK27" s="74"/>
-      <c r="BL27" s="74"/>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="74"/>
+      <c r="BF28" s="74"/>
+      <c r="BG28" s="74"/>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="74"/>
+      <c r="BJ28" s="74"/>
+      <c r="BK28" s="74"/>
+      <c r="BL28" s="74"/>
+      <c r="BM28" s="74"/>
+      <c r="BN28" s="74"/>
+      <c r="BO28" s="74"/>
+      <c r="BP28" s="74"/>
+      <c r="BQ28" s="74"/>
+      <c r="BR28" s="74"/>
+      <c r="BS28" s="74"/>
+      <c r="BT28" s="74"/>
+      <c r="BU28" s="74"/>
+      <c r="BV28" s="74"/>
+      <c r="BW28" s="74"/>
+      <c r="BX28" s="74"/>
+      <c r="BY28" s="74"/>
+      <c r="BZ28" s="74"/>
+      <c r="CA28" s="74"/>
+      <c r="CB28" s="74"/>
+      <c r="CC28" s="74"/>
+      <c r="CD28" s="74"/>
+      <c r="CE28" s="74"/>
+      <c r="CF28" s="74"/>
+      <c r="CG28" s="74"/>
+      <c r="CH28" s="74"/>
+      <c r="CI28" s="74"/>
+      <c r="CJ28" s="74"/>
+      <c r="CK28" s="74"/>
+      <c r="CL28" s="74"/>
+      <c r="CM28" s="74"/>
+      <c r="CN28" s="74"/>
+      <c r="CO28" s="74"/>
+      <c r="CP28" s="74"/>
+      <c r="CQ28" s="74"/>
+      <c r="CR28" s="74"/>
+      <c r="CS28" s="74"/>
+      <c r="CT28" s="74"/>
+      <c r="CU28" s="74"/>
+    </row>
+    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="F29" s="87">
+      <c r="C30" s="17"/>
+      <c r="F30" s="87">
         <v>43113</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="91" t="s">
+    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B31" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="90" t="s">
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B32" s="90" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+  <mergeCells count="16">
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D27">
+  <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3758,7 +4963,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL27">
+  <conditionalFormatting sqref="I7:CU28">
     <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3766,7 +4971,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL27">
+  <conditionalFormatting sqref="I5:CU28">
     <cfRule type="expression" dxfId="0" priority="27">
       <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
@@ -3777,8 +4982,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId3"/>
@@ -3800,7 +5005,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D27</xm:sqref>
+          <xm:sqref>D7:D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/comp173-gantt-chart_ms.xlsx
+++ b/comp173-gantt-chart_ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonlab\senior-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78558495-B252-4DA4-8301-D5942B3E7D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040815BA-D8BF-4816-A628-1E680CFA4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Ceaser Cipher text </t>
   </si>
 </sst>
 </file>
@@ -938,23 +941,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1512,11 +1515,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU32"/>
+  <dimension ref="A1:CU33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,27 +1553,27 @@
       <c r="F1" s="88"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="93" t="str">
+      <c r="J1" s="98" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
     </row>
     <row r="2" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -1579,10 +1582,10 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="96">
         <v>44617</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="97"/>
     </row>
     <row r="3" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1591,10 +1594,10 @@
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="96">
         <v>44625</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
@@ -1603,136 +1606,136 @@
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="93">
         <f>I5</f>
         <v>44620</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f>P5</f>
         <v>44627</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f>W5</f>
         <v>44634</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f>AD5</f>
         <v>44641</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f>AK5</f>
         <v>44648</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f>AR5</f>
         <v>44655</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f>AY5</f>
         <v>44662</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f>BF5</f>
         <v>44669</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
-      <c r="BM4" s="94">
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
+      <c r="BM4" s="93">
         <f>BM5</f>
         <v>44676</v>
       </c>
-      <c r="BN4" s="95"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="95"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="95"/>
-      <c r="BS4" s="96"/>
-      <c r="BT4" s="94">
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="94"/>
+      <c r="BQ4" s="94"/>
+      <c r="BR4" s="94"/>
+      <c r="BS4" s="95"/>
+      <c r="BT4" s="93">
         <f>BT5</f>
         <v>44683</v>
       </c>
-      <c r="BU4" s="95"/>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="95"/>
-      <c r="BZ4" s="96"/>
-      <c r="CA4" s="94">
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="94"/>
+      <c r="BY4" s="94"/>
+      <c r="BZ4" s="95"/>
+      <c r="CA4" s="93">
         <f t="shared" ref="CA4" si="0">CA5</f>
         <v>44690</v>
       </c>
-      <c r="CB4" s="95"/>
-      <c r="CC4" s="95"/>
-      <c r="CD4" s="95"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="95"/>
-      <c r="CG4" s="96"/>
-      <c r="CH4" s="94">
+      <c r="CB4" s="94"/>
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="94"/>
+      <c r="CF4" s="94"/>
+      <c r="CG4" s="95"/>
+      <c r="CH4" s="93">
         <f t="shared" ref="CH4" si="1">CH5</f>
         <v>44697</v>
       </c>
-      <c r="CI4" s="95"/>
-      <c r="CJ4" s="95"/>
-      <c r="CK4" s="95"/>
-      <c r="CL4" s="95"/>
-      <c r="CM4" s="95"/>
-      <c r="CN4" s="96"/>
-      <c r="CO4" s="94">
+      <c r="CI4" s="94"/>
+      <c r="CJ4" s="94"/>
+      <c r="CK4" s="94"/>
+      <c r="CL4" s="94"/>
+      <c r="CM4" s="94"/>
+      <c r="CN4" s="95"/>
+      <c r="CO4" s="93">
         <f t="shared" ref="CO4" si="2">CO5</f>
         <v>44704</v>
       </c>
-      <c r="CP4" s="95"/>
-      <c r="CQ4" s="95"/>
-      <c r="CR4" s="95"/>
-      <c r="CS4" s="95"/>
-      <c r="CT4" s="95"/>
-      <c r="CU4" s="96"/>
+      <c r="CP4" s="94"/>
+      <c r="CQ4" s="94"/>
+      <c r="CR4" s="94"/>
+      <c r="CS4" s="94"/>
+      <c r="CT4" s="94"/>
+      <c r="CU4" s="95"/>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2499,7 +2502,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25" t="str">
-        <f t="shared" ref="H7:H28" si="37">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H29" si="37">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="72"/>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E14" s="44">
         <v>44640</v>
@@ -3379,7 +3382,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="44">
         <v>44647</v>
@@ -3488,7 +3491,7 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="44">
         <v>44647</v>
@@ -3593,11 +3596,11 @@
     <row r="17" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="44">
         <v>44647</v>
@@ -3606,10 +3609,7 @@
         <v>44687</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="25">
-        <f t="shared" si="37"/>
-        <v>41</v>
-      </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -3626,7 +3626,7 @@
       <c r="V17" s="72"/>
       <c r="W17" s="72"/>
       <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
+      <c r="Y17" s="73"/>
       <c r="Z17" s="72"/>
       <c r="AA17" s="72"/>
       <c r="AB17" s="72"/>
@@ -3704,17 +3704,23 @@
     </row>
     <row r="18" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="44">
+        <v>44647</v>
+      </c>
+      <c r="F18" s="45">
+        <v>44687</v>
+      </c>
       <c r="G18" s="25"/>
-      <c r="H18" s="25" t="str">
+      <c r="H18" s="25">
         <f t="shared" si="37"/>
-        <v/>
+        <v>41</v>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -3810,23 +3816,17 @@
     </row>
     <row r="19" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53">
-        <v>1</v>
-      </c>
-      <c r="E19" s="54">
-        <v>44619</v>
-      </c>
-      <c r="F19" s="54">
-        <v>44625</v>
-      </c>
+      <c r="B19" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="25">
+      <c r="H19" s="25" t="str">
         <f t="shared" si="37"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
@@ -3923,22 +3923,22 @@
     <row r="20" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="53">
         <v>1</v>
       </c>
       <c r="E20" s="54">
-        <v>44640</v>
+        <v>44619</v>
       </c>
       <c r="F20" s="54">
-        <v>44647</v>
+        <v>44625</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25">
         <f t="shared" si="37"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
@@ -4035,22 +4035,22 @@
     <row r="21" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="53">
         <v>1</v>
       </c>
       <c r="E21" s="54">
-        <v>44654</v>
-      </c>
-      <c r="F21" s="55">
-        <v>44666</v>
+        <v>44640</v>
+      </c>
+      <c r="F21" s="54">
+        <v>44647</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
@@ -4147,17 +4147,17 @@
     <row r="22" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="54">
-        <v>44668</v>
-      </c>
-      <c r="F22" s="54">
-        <v>44680</v>
+        <v>44654</v>
+      </c>
+      <c r="F22" s="55">
+        <v>44666</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25">
@@ -4258,17 +4258,23 @@
     </row>
     <row r="23" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53">
+        <v>1</v>
+      </c>
+      <c r="E23" s="54">
+        <v>44668</v>
+      </c>
+      <c r="F23" s="54">
+        <v>44680</v>
+      </c>
       <c r="G23" s="25"/>
-      <c r="H23" s="25" t="str">
+      <c r="H23" s="25">
         <f t="shared" si="37"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
@@ -4364,23 +4370,17 @@
     </row>
     <row r="24" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63">
-        <v>0</v>
-      </c>
-      <c r="E24" s="64">
-        <v>44687</v>
-      </c>
-      <c r="F24" s="65">
-        <v>44709</v>
-      </c>
+      <c r="B24" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="25">
+      <c r="H24" s="25" t="str">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v/>
       </c>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
@@ -4477,22 +4477,22 @@
     <row r="25" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="63">
         <v>0</v>
       </c>
       <c r="E25" s="64">
-        <v>44688</v>
-      </c>
-      <c r="F25" s="64">
+        <v>44687</v>
+      </c>
+      <c r="F25" s="65">
         <v>44709</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
@@ -4589,20 +4589,23 @@
     <row r="26" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="63">
         <v>0</v>
       </c>
       <c r="E26" s="64">
-        <v>44655</v>
+        <v>44688</v>
       </c>
       <c r="F26" s="64">
         <v>44709</v>
       </c>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="25">
+        <f t="shared" si="37"/>
+        <v>22</v>
+      </c>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -4697,16 +4700,21 @@
     </row>
     <row r="27" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63">
+        <v>1</v>
+      </c>
+      <c r="E27" s="64">
+        <v>44655</v>
+      </c>
+      <c r="F27" s="64">
+        <v>44709</v>
+      </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="25" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
+      <c r="H27" s="25"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
@@ -4801,155 +4809,259 @@
     </row>
     <row r="28" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71" t="str">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="74"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="74"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="74"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="74"/>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="74"/>
-      <c r="BB28" s="74"/>
-      <c r="BC28" s="74"/>
-      <c r="BD28" s="74"/>
-      <c r="BE28" s="74"/>
-      <c r="BF28" s="74"/>
-      <c r="BG28" s="74"/>
-      <c r="BH28" s="74"/>
-      <c r="BI28" s="74"/>
-      <c r="BJ28" s="74"/>
-      <c r="BK28" s="74"/>
-      <c r="BL28" s="74"/>
-      <c r="BM28" s="74"/>
-      <c r="BN28" s="74"/>
-      <c r="BO28" s="74"/>
-      <c r="BP28" s="74"/>
-      <c r="BQ28" s="74"/>
-      <c r="BR28" s="74"/>
-      <c r="BS28" s="74"/>
-      <c r="BT28" s="74"/>
-      <c r="BU28" s="74"/>
-      <c r="BV28" s="74"/>
-      <c r="BW28" s="74"/>
-      <c r="BX28" s="74"/>
-      <c r="BY28" s="74"/>
-      <c r="BZ28" s="74"/>
-      <c r="CA28" s="74"/>
-      <c r="CB28" s="74"/>
-      <c r="CC28" s="74"/>
-      <c r="CD28" s="74"/>
-      <c r="CE28" s="74"/>
-      <c r="CF28" s="74"/>
-      <c r="CG28" s="74"/>
-      <c r="CH28" s="74"/>
-      <c r="CI28" s="74"/>
-      <c r="CJ28" s="74"/>
-      <c r="CK28" s="74"/>
-      <c r="CL28" s="74"/>
-      <c r="CM28" s="74"/>
-      <c r="CN28" s="74"/>
-      <c r="CO28" s="74"/>
-      <c r="CP28" s="74"/>
-      <c r="CQ28" s="74"/>
-      <c r="CR28" s="74"/>
-      <c r="CS28" s="74"/>
-      <c r="CT28" s="74"/>
-      <c r="CU28" s="74"/>
-    </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="72"/>
+      <c r="BA28" s="72"/>
+      <c r="BB28" s="72"/>
+      <c r="BC28" s="72"/>
+      <c r="BD28" s="72"/>
+      <c r="BE28" s="72"/>
+      <c r="BF28" s="72"/>
+      <c r="BG28" s="72"/>
+      <c r="BH28" s="72"/>
+      <c r="BI28" s="72"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="72"/>
+      <c r="BL28" s="72"/>
+      <c r="BM28" s="72"/>
+      <c r="BN28" s="72"/>
+      <c r="BO28" s="72"/>
+      <c r="BP28" s="72"/>
+      <c r="BQ28" s="72"/>
+      <c r="BR28" s="72"/>
+      <c r="BS28" s="72"/>
+      <c r="BT28" s="72"/>
+      <c r="BU28" s="72"/>
+      <c r="BV28" s="72"/>
+      <c r="BW28" s="72"/>
+      <c r="BX28" s="72"/>
+      <c r="BY28" s="72"/>
+      <c r="BZ28" s="72"/>
+      <c r="CA28" s="72"/>
+      <c r="CB28" s="72"/>
+      <c r="CC28" s="72"/>
+      <c r="CD28" s="72"/>
+      <c r="CE28" s="72"/>
+      <c r="CF28" s="72"/>
+      <c r="CG28" s="72"/>
+      <c r="CH28" s="72"/>
+      <c r="CI28" s="72"/>
+      <c r="CJ28" s="72"/>
+      <c r="CK28" s="72"/>
+      <c r="CL28" s="72"/>
+      <c r="CM28" s="72"/>
+      <c r="CN28" s="72"/>
+      <c r="CO28" s="72"/>
+      <c r="CP28" s="72"/>
+      <c r="CQ28" s="72"/>
+      <c r="CR28" s="72"/>
+      <c r="CS28" s="72"/>
+      <c r="CT28" s="72"/>
+      <c r="CU28" s="72"/>
+    </row>
+    <row r="29" spans="1:99" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="74"/>
+      <c r="BF29" s="74"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="74"/>
+      <c r="BL29" s="74"/>
+      <c r="BM29" s="74"/>
+      <c r="BN29" s="74"/>
+      <c r="BO29" s="74"/>
+      <c r="BP29" s="74"/>
+      <c r="BQ29" s="74"/>
+      <c r="BR29" s="74"/>
+      <c r="BS29" s="74"/>
+      <c r="BT29" s="74"/>
+      <c r="BU29" s="74"/>
+      <c r="BV29" s="74"/>
+      <c r="BW29" s="74"/>
+      <c r="BX29" s="74"/>
+      <c r="BY29" s="74"/>
+      <c r="BZ29" s="74"/>
+      <c r="CA29" s="74"/>
+      <c r="CB29" s="74"/>
+      <c r="CC29" s="74"/>
+      <c r="CD29" s="74"/>
+      <c r="CE29" s="74"/>
+      <c r="CF29" s="74"/>
+      <c r="CG29" s="74"/>
+      <c r="CH29" s="74"/>
+      <c r="CI29" s="74"/>
+      <c r="CJ29" s="74"/>
+      <c r="CK29" s="74"/>
+      <c r="CL29" s="74"/>
+      <c r="CM29" s="74"/>
+      <c r="CN29" s="74"/>
+      <c r="CO29" s="74"/>
+      <c r="CP29" s="74"/>
+      <c r="CQ29" s="74"/>
+      <c r="CR29" s="74"/>
+      <c r="CS29" s="74"/>
+      <c r="CT29" s="74"/>
+      <c r="CU29" s="74"/>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="F30" s="87">
+      <c r="C31" s="17"/>
+      <c r="F31" s="87">
         <v>43113</v>
       </c>
     </row>
-    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B31" s="91" t="s">
+    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B32" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="90" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BM4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D28">
+  <conditionalFormatting sqref="D7:D29">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4963,7 +5075,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:CU28">
+  <conditionalFormatting sqref="I7:CU29">
     <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4971,7 +5083,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:CU28">
+  <conditionalFormatting sqref="I5:CU29">
     <cfRule type="expression" dxfId="0" priority="27">
       <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
@@ -4982,8 +5094,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId3"/>
@@ -5005,7 +5117,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D28</xm:sqref>
+          <xm:sqref>D7:D29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/comp173-gantt-chart_ms.xlsx
+++ b/comp173-gantt-chart_ms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonlab\senior-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040815BA-D8BF-4816-A628-1E680CFA4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7743213D-E048-42BC-8928-326CDC47D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,6 +941,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -955,9 +958,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:CU33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,27 +1553,27 @@
       <c r="F1" s="88"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="98" t="str">
+      <c r="J1" s="93" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
     </row>
     <row r="2" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -1582,10 +1582,10 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="97">
         <v>44617</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1594,10 +1594,10 @@
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="97">
         <v>44625</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
@@ -1606,136 +1606,136 @@
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="94">
         <f>I5</f>
         <v>44620</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f>P5</f>
         <v>44627</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f>W5</f>
         <v>44634</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f>AD5</f>
         <v>44641</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f>AK5</f>
         <v>44648</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f>AR5</f>
         <v>44655</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f>AY5</f>
         <v>44662</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f>BF5</f>
         <v>44669</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
-      <c r="BM4" s="93">
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="94">
         <f>BM5</f>
         <v>44676</v>
       </c>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="94"/>
-      <c r="BP4" s="94"/>
-      <c r="BQ4" s="94"/>
-      <c r="BR4" s="94"/>
-      <c r="BS4" s="95"/>
-      <c r="BT4" s="93">
+      <c r="BN4" s="95"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="95"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="95"/>
+      <c r="BS4" s="96"/>
+      <c r="BT4" s="94">
         <f>BT5</f>
         <v>44683</v>
       </c>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="94"/>
-      <c r="BY4" s="94"/>
-      <c r="BZ4" s="95"/>
-      <c r="CA4" s="93">
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="95"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="95"/>
+      <c r="BZ4" s="96"/>
+      <c r="CA4" s="94">
         <f t="shared" ref="CA4" si="0">CA5</f>
         <v>44690</v>
       </c>
-      <c r="CB4" s="94"/>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="94"/>
-      <c r="CF4" s="94"/>
-      <c r="CG4" s="95"/>
-      <c r="CH4" s="93">
+      <c r="CB4" s="95"/>
+      <c r="CC4" s="95"/>
+      <c r="CD4" s="95"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="95"/>
+      <c r="CG4" s="96"/>
+      <c r="CH4" s="94">
         <f t="shared" ref="CH4" si="1">CH5</f>
         <v>44697</v>
       </c>
-      <c r="CI4" s="94"/>
-      <c r="CJ4" s="94"/>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="94"/>
-      <c r="CN4" s="95"/>
-      <c r="CO4" s="93">
+      <c r="CI4" s="95"/>
+      <c r="CJ4" s="95"/>
+      <c r="CK4" s="95"/>
+      <c r="CL4" s="95"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="96"/>
+      <c r="CO4" s="94">
         <f t="shared" ref="CO4" si="2">CO5</f>
         <v>44704</v>
       </c>
-      <c r="CP4" s="94"/>
-      <c r="CQ4" s="94"/>
-      <c r="CR4" s="94"/>
-      <c r="CS4" s="94"/>
-      <c r="CT4" s="94"/>
-      <c r="CU4" s="95"/>
+      <c r="CP4" s="95"/>
+      <c r="CQ4" s="95"/>
+      <c r="CR4" s="95"/>
+      <c r="CS4" s="95"/>
+      <c r="CT4" s="95"/>
+      <c r="CU4" s="96"/>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="44">
         <v>44647</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="44">
         <v>44647</v>
@@ -4481,18 +4481,18 @@
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="64">
         <v>44687</v>
       </c>
       <c r="F25" s="65">
-        <v>44709</v>
+        <v>44687</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
@@ -4593,18 +4593,18 @@
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="64">
         <v>44688</v>
       </c>
       <c r="F26" s="64">
-        <v>44709</v>
+        <v>44688</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
@@ -4708,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="64">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="F27" s="64">
-        <v>44709</v>
+        <v>44680</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5043,22 +5043,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="D7:D29">
